--- a/soal.xlsx
+++ b/soal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGODING\Python\SeleksiOSK2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4572791E-37BB-4906-BE7D-142AF2D3386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0ECF32-55C8-4BD9-BE4C-9622CB82660E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
   <si>
     <t>Soal</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Jika semua A adalah B dan sebagian B adalah C, manakah pernyataan di bawah ini yang benar?</t>
   </si>
   <si>
-    <t>Semua A adalah C,Sebagian C adalah A, Semua C adalah A, Sebagian A adalah C, Jawaban a, b, c, dan d salah</t>
-  </si>
-  <si>
     <t>Dalam suatu kelas, terdapat 40 siswa. 19 siswa menyukai matematika, 10 siswa menyukai komputer, 5 siswa menyukai fisika, 2 siswa menyukai ketiganya, 3 siswa menyukai matematika dan fisika saja, dan 7 siswa menyukai matematika saja.  Berapa banyaknya siswa yang tidak menyukai apapun?</t>
   </si>
   <si>
@@ -232,60 +229,21 @@
     <t>51,53,85,90,94</t>
   </si>
   <si>
-    <t>1&lt;kode&gt;Ana, Ani, Ina, Nia, Ian adalah teman sekelas. Mereka baru saja menerima hasil Ulangan Harian. Nilai Ana lebih rendah dari Nia tapi lebih tinggi dari Ina. Nilai Ani lebih tinggi nilai Ian. Nilai Ina lebih tinggi dari nilai Ian. Nilai Ani lebih tinggi dari Ana tapi lebih rendah dari nilai Nia.</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1&lt;kode&gt;Siapa yang memperoleh nilai tertinggi?</t>
-  </si>
-  <si>
     <t>Ana,Ani,Ina,Nia,Ian</t>
   </si>
   <si>
-    <t>1&lt;kode&gt;Siapa yang memperoleh nilai terendah?</t>
-  </si>
-  <si>
-    <t>2&lt;kode&gt;Pada saat upacara bendera disuatu sekolah, para siswa berbaris berurut sesuai tinggi badan, dimulai dari yang paling pendek, ke yang paling tinggi berdiri paling belakang. Terdapat 7 siswa, diantaranya adalah Badu, Badrun, Bagus, Bahrun, Basith, Beni dan Budi. Bahrun berada persis di depan Bagus. Budi lebih tinggi dari Badrun dan Badu. Badu lebih tinggi dari Bagus dan ada seseorang yang berdiri diantara mereka berdua. Basith lebih pendek dari Bagus. Beni adalah orang kedua tertinggi dalam barisan tersebut</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2&lt;kode&gt;Siapakah siswa terpendek?</t>
-  </si>
-  <si>
     <t>Badu,Badrun,Bagus,Bahrun,Basith</t>
   </si>
   <si>
-    <t>2&lt;kode&gt;Ada berapa orang berbaris di belakang Badrun?</t>
-  </si>
-  <si>
     <t>0,1,2,3,4</t>
   </si>
   <si>
-    <t>3&lt;kode&gt;Ando bermain dengan 8 bilangan 2, 3, 5, 7, 11, 13, 17, 19. Ando membagi 8 bilangan tersebut menjadi 4 pasangan bilangan. Kemudian Ando menghitung selisih dari setiap pasangan lalu menjumlahkan selisihselisihnya, yang disebut sebagai total selisih.</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3&lt;kode&gt;Berapa banyak total selisih paling minimal yang mungkin?</t>
-  </si>
-  <si>
     <t>5,6,7,8,9</t>
   </si>
   <si>
-    <t>3&lt;kode&gt;Berapa banyak total selisih paling maksimal yang mungkin?</t>
-  </si>
-  <si>
     <t>13,23,33,43,53</t>
   </si>
   <si>
-    <t>3&lt;kode&gt;Berapa banyak cara membentuk pasangan bilangan yang berbeda agar menghasilkan total selisih yang maksimal?</t>
-  </si>
-  <si>
     <t>10,24,50,120,4</t>
   </si>
   <si>
@@ -349,133 +307,100 @@
     <t>1,2,3,4,5</t>
   </si>
   <si>
-    <t>1&lt;kode&gt;var data: array[1..10] of integer = (8, 12, 16, 20, 12, 14, 16, 20, 20, 22); function itik(a, b: integer):integer; begin      if b = 0 then itik := a         else itik := itik(b,a mod b); end; function bebek(x: integer):integer; begin      if x &gt; 10 then bebek:=0         else bebek := itik(data[x], bebek(x * 2)); end; begin  writeln(bebek(1)); end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1&lt;kode&gt;Apakah keluaran dari program di atas? </t>
-  </si>
-  <si>
-    <t>2&lt;kode&gt;var kancil, panda, i, j: integer; begin    for i := 2 to 100 do    begin       j := 1;       kancil := 0;       while(j &lt;= i) do       begin           if i mod j = 0 then inc(kancil);           inc(j);       end;       if kancil = 2 then inc(panda);    end;    writeln(panda); end.</t>
-  </si>
-  <si>
     <t>10,15,25,30,40</t>
   </si>
   <si>
-    <t>2&lt;kode&gt;Apakah keluaran dari program di atas?</t>
-  </si>
-  <si>
-    <t>3&lt;kode&gt;var i, ans, x: integer; begin  ans := 0;  x := 80;  for i := 1 to x do  begin    if i mod 3 = 0 then inc(ans);  end;  writeln(ans); end.</t>
-  </si>
-  <si>
-    <t>3&lt;kode&gt;Apakah keluaran dari program di atas?</t>
-  </si>
-  <si>
     <t>26,27,28,3,80</t>
   </si>
   <si>
-    <t>4&lt;kode&gt;var arr: array[1..7] of integer = (3, 5, 2, 1, 1, 7, 2); cnt: array[1..10] of integer; i, j: integer; begin  for i := 1 to 7 do      inc(cnt[arr[i]]);  for i := 1 to 10 do      for j := 1 to cnt[i] do      write(i); end.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4&lt;kode&gt;Apakah keluaran dari program di atas?</t>
-  </si>
-  <si>
     <t>1122357,7532211,3521172,1234567,1123357</t>
   </si>
   <si>
-    <t>5&lt;kode&gt;var merpati: integer; begin     merpati := 2018;     if merpati mod 100 &gt; 20 then        merpati := merpati + 1     else        merpati := merpati + 2;     writeln(merpati + merpati); end.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5&lt;kode&gt;Apakah keluaran dari program diatas?</t>
-  </si>
-  <si>
     <t>100,2018,2020,4040,4038</t>
   </si>
   <si>
-    <t>6&lt;kode&gt;function tis(a : integer) : longint; begin if(a &lt; 10) then tis := a else tis := tis(a div 10) * 3 + tis(a div 50); end;</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6&lt;kode&gt;Berapakah hasil dari pemanggilan fungsi tis(143)?</t>
-  </si>
-  <si>
     <t>8,9,10,11,12</t>
   </si>
   <si>
-    <t>7&lt;kode&gt;a := 13; b := 1; while(a &lt; n) do begin a := a + b; b := b + 1; end; writeln(a, ' ', b);</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7&lt;kode&gt;Dari pilihan berikut ini, berapakah nilai n yang TIDAK membuat nilai a di akhir adalah 79?</t>
-  </si>
-  <si>
-    <t>7&lt;kode&gt;Berapakah nilai n maksimum yang membuat nilai b di akhir bernilai 15?</t>
-  </si>
-  <si>
     <t>134,133,119,118,117</t>
   </si>
   <si>
-    <t>8&lt;kode&gt;var x, y, i, xy : integer; begin  x:=105;  y:=79;  for i:=0 to 1234 do  begin    xy:=x; x:=y; y:=xy;  end;  writeln(x, ' ', y); end.</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8&lt;kode&gt;Apakah output dari program tersebut?</t>
-  </si>
-  <si>
     <t>105 184,184 79, 105 79, 79 105, 184 26</t>
   </si>
   <si>
-    <t>9&lt;kode&gt;{x dan y bertipe data integer} x:=3; y:=4; x:=x+y;  y:=x-y; x:=x-y;</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>9&lt;kode&gt;Nilai x setelah eksekusi operasi x:=x+y adalah:</t>
-  </si>
-  <si>
     <t>3, False, 7, 4, xy</t>
   </si>
   <si>
-    <t>9&lt;kode&gt;Nilai pasangan x dan y setelah operasi x:=x-y dieksekusi adalah:</t>
-  </si>
-  <si>
     <t>x=3 y=4, x=-1 y=-1, x=4 y=3, x=3 y=-1, x=7 y=3</t>
   </si>
   <si>
-    <t>10&lt;kode&gt;function move(n:integer): integer; begin if (n=1) then move:=1  else move:=2*move(n-1)+1; end;</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10&lt;kode&gt;Nilai kembalian pemanggilan fungsi move(16) adalah:</t>
-  </si>
-  <si>
     <t>65535, 31, 1, 32768, 33</t>
   </si>
   <si>
-    <t>11&lt;kode&gt;function wow(x:integer):integer; begin  if (x &lt; 2) then wow := x  else wow := wow(x-2) + 3*wow(x-1); end;</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>11&lt;kode&gt;Apa yang akan dikembalikan pada pemanggilan fungsi wow(8)?</t>
-  </si>
-  <si>
     <t>3620,3760,3824,3927,4126</t>
+  </si>
+  <si>
+    <t>Ana, Ani, Ina, Nia, Ian adalah teman sekelas. Mereka baru saja menerima hasil Ulangan Harian. Nilai Ana lebih rendah dari Nia tapi lebih tinggi dari Ina. Nilai Ani lebih tinggi nilai Ian. Nilai Ina lebih tinggi dari nilai Ian. Nilai Ani lebih tinggi dari Ana tapi lebih rendah dari nilai Nia. Siapa yang memperoleh nilai tertinggi?</t>
+  </si>
+  <si>
+    <t>Ana, Ani, Ina, Nia, Ian adalah teman sekelas. Mereka baru saja menerima hasil Ulangan Harian. Nilai Ana lebih rendah dari Nia tapi lebih tinggi dari Ina. Nilai Ani lebih tinggi nilai Ian. Nilai Ina lebih tinggi dari nilai Ian. Nilai Ani lebih tinggi dari Ana tapi lebih rendah dari nilai Nia. Siapa yang memperoleh nilai terendah?</t>
+  </si>
+  <si>
+    <t>Pada saat upacara bendera disuatu sekolah, para siswa berbaris berurut sesuai tinggi badan, dimulai dari yang paling pendek, ke yang paling tinggi berdiri paling belakang. Terdapat 7 siswa, diantaranya adalah Badu, Badrun, Bagus, Bahrun, Basith, Beni dan Budi. Bahrun berada persis di depan Bagus. Budi lebih tinggi dari Badrun dan Badu. Badu lebih tinggi dari Bagus dan ada seseorang yang berdiri diantara mereka berdua. Basith lebih pendek dari Bagus. Beni adalah orang kedua tertinggi dalam barisan tersebut. Siapakah siswa terpendek?</t>
+  </si>
+  <si>
+    <t>Pada saat upacara bendera disuatu sekolah, para siswa berbaris berurut sesuai tinggi badan, dimulai dari yang paling pendek, ke yang paling tinggi berdiri paling belakang. Terdapat 7 siswa, diantaranya adalah Badu, Badrun, Bagus, Bahrun, Basith, Beni dan Budi. Bahrun berada persis di depan Bagus. Budi lebih tinggi dari Badrun dan Badu. Badu lebih tinggi dari Bagus dan ada seseorang yang berdiri diantara mereka berdua. Basith lebih pendek dari Bagus. Beni adalah orang kedua tertinggi dalam barisan tersebut. Ada berapa orang berbaris di belakang Badrun?</t>
+  </si>
+  <si>
+    <t>Ando bermain dengan 8 bilangan 2, 3, 5, 7, 11, 13, 17, 19. Ando membagi 8 bilangan tersebut menjadi 4 pasangan bilangan. Kemudian Ando menghitung selisih dari setiap pasangan lalu menjumlahkan selisihselisihnya, yang disebut sebagai total selisih. Berapa banyak total selisih paling minimal yang mungkin?</t>
+  </si>
+  <si>
+    <t>Ando bermain dengan 8 bilangan 2, 3, 5, 7, 11, 13, 17, 19. Ando membagi 8 bilangan tersebut menjadi 4 pasangan bilangan. Kemudian Ando menghitung selisih dari setiap pasangan lalu menjumlahkan selisihselisihnya, yang disebut sebagai total selisih. Berapa banyak total selisih paling maksimal yang mungkin?</t>
+  </si>
+  <si>
+    <t>Ando bermain dengan 8 bilangan 2, 3, 5, 7, 11, 13, 17, 19. Ando membagi 8 bilangan tersebut menjadi 4 pasangan bilangan. Kemudian Ando menghitung selisih dari setiap pasangan lalu menjumlahkan selisihselisihnya, yang disebut sebagai total selisih. Berapa banyak cara membentuk pasangan bilangan yang berbeda agar menghasilkan total selisih yang maksimal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var data: array[1..10] of integer = (8, 12, 16, 20, 12, 14, 16, 20, 20, 22); function itik(a, b: integer):integer; begin      if b = 0 then itik := a         else itik := itik(b,a mod b); end; function bebek(x: integer):integer; begin      if x &gt; 10 then bebek:=0         else bebek := itik(data[x], bebek(x * 2)); end; begin  writeln(bebek(1)); end. Apakah keluaran dari program di atas? </t>
+  </si>
+  <si>
+    <t>var kancil, panda, i, j: integer; begin    for i := 2 to 100 do    begin       j := 1;       kancil := 0;       while(j &lt;= i) do       begin           if i mod j = 0 then inc(kancil);           inc(j);       end;       if kancil = 2 then inc(panda);    end;    writeln(panda); end. \nApakah keluaran dari program di atas?</t>
+  </si>
+  <si>
+    <t>var i, ans, x: integer; begin  ans := 0;  x := 80;  for i := 1 to x do  begin    if i mod 3 = 0 then inc(ans);  end;  writeln(ans); end. \nApakah keluaran dari program di atas?</t>
+  </si>
+  <si>
+    <t>var arr: array[1..7] of integer = (3, 5, 2, 1, 1, 7, 2); cnt: array[1..10] of integer; i, j: integer; begin  for i := 1 to 7 do      inc(cnt[arr[i]]);  for i := 1 to 10 do      for j := 1 to cnt[i] do      write(i); end. \nApakah keluaran dari program di atas?</t>
+  </si>
+  <si>
+    <t>var merpati: integer; begin     merpati := 2018;     if merpati mod 100 &gt; 20 then        merpati := merpati + 1     else        merpati := merpati + 2;     writeln(merpati + merpati); end. \nApakah keluaran dari program diatas?</t>
+  </si>
+  <si>
+    <t>function tis(a : integer) : longint; begin if(a &lt; 10) then tis := a else tis := tis(a div 10) * 3 + tis(a div 50); end; \nBerapakah hasil dari pemanggilan fungsi tis(143)?</t>
+  </si>
+  <si>
+    <t>a := 13; b := 1; while(a &lt; n) do begin a := a + b; b := b + 1; end; writeln(a, ' ', b); \nDari pilihan berikut ini, berapakah nilai n yang TIDAK membuat nilai a di akhir adalah 79?</t>
+  </si>
+  <si>
+    <t>a := 13; b := 1; while(a &lt; n) do begin a := a + b; b := b + 1; end; writeln(a, ' ', b); \nBerapakah nilai n maksimum yang membuat nilai b di akhir bernilai 15?</t>
+  </si>
+  <si>
+    <t>var x, y, i, xy : integer; begin  x:=105;  y:=79;  for i:=0 to 1234 do  begin    xy:=x; x:=y; y:=xy;  end;  writeln(x, ' ', y); end. \nApakah output dari program tersebut?</t>
+  </si>
+  <si>
+    <t>{x dan y bertipe data integer} x:=3; y:=4; x:=x+y;  y:=x-y; x:=x-y; \nNilai x setelah eksekusi operasi x:=x+y adalah:</t>
+  </si>
+  <si>
+    <t>{x dan y bertipe data integer} x:=3; y:=4; x:=x+y;  y:=x-y; x:=x-y; \nNilai pasangan x dan y setelah operasi x:=x-y dieksekusi adalah:</t>
+  </si>
+  <si>
+    <t>function move(n:integer): integer; begin if (n=1) then move:=1  else move:=2*move(n-1)+1; end; \nNilai kembalian pemanggilan fungsi move(16) adalah:</t>
+  </si>
+  <si>
+    <t>function wow(x:integer):integer; begin  if (x &lt; 2) then wow := x  else wow := wow(x-2) + 3*wow(x-1); end; \nApa yang akan dikembalikan pada pemanggilan fungsi wow(8)?</t>
+  </si>
+  <si>
+    <t>Semua A adalah C,Sebagian C adalah A, Semua C adalah A, Sebagian A adalah C, Semua jawaban salah</t>
   </si>
 </sst>
 </file>
@@ -838,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,755 +883,601 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
